--- a/推荐模型.xlsx
+++ b/推荐模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>自闭症家庭训练系统推荐算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +107,26 @@
   </si>
   <si>
     <t>无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言与认知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情感与社交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗大运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细与感统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -807,12 +829,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
